--- a/target/classes/Book1.xlsx
+++ b/target/classes/Book1.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Mr. qcuhb rgvaf</t>
+    <t>ubpbj cdgui</t>
   </si>
   <si>
-    <t>0030K00001LPoJt</t>
+    <t>0030K00001MJ4rsQAD</t>
   </si>
 </sst>
 </file>
